--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.517849</v>
+        <v>13.30571766666667</v>
       </c>
       <c r="H2">
-        <v>127.553547</v>
+        <v>39.917153</v>
       </c>
       <c r="I2">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167935</v>
       </c>
       <c r="J2">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167933</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.94532566666667</v>
+        <v>2.680851666666667</v>
       </c>
       <c r="N2">
-        <v>77.835977</v>
+        <v>8.042555</v>
       </c>
       <c r="O2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="P2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="Q2">
-        <v>1103.139438951158</v>
+        <v>35.67065538287945</v>
       </c>
       <c r="R2">
-        <v>9928.254950560418</v>
+        <v>321.035898445915</v>
       </c>
       <c r="S2">
-        <v>0.01248666583944043</v>
+        <v>0.000821610151168455</v>
       </c>
       <c r="T2">
-        <v>0.01248666583944043</v>
+        <v>0.0008216101511684546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.517849</v>
+        <v>13.30571766666667</v>
       </c>
       <c r="H3">
-        <v>127.553547</v>
+        <v>39.917153</v>
       </c>
       <c r="I3">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167935</v>
       </c>
       <c r="J3">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.51427066666666</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N3">
         <v>55.542812</v>
       </c>
       <c r="O3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="P3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="Q3">
-        <v>787.1869645504626</v>
+        <v>246.3456582949151</v>
       </c>
       <c r="R3">
-        <v>7084.682680954164</v>
+        <v>2217.110924654236</v>
       </c>
       <c r="S3">
-        <v>0.008910333755133079</v>
+        <v>0.005674134421665885</v>
       </c>
       <c r="T3">
-        <v>0.008910333755133079</v>
+        <v>0.005674134421665884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.517849</v>
+        <v>13.30571766666667</v>
       </c>
       <c r="H4">
-        <v>127.553547</v>
+        <v>39.917153</v>
       </c>
       <c r="I4">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167935</v>
       </c>
       <c r="J4">
-        <v>0.02311569285614191</v>
+        <v>0.007643519924167933</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.571174000000001</v>
+        <v>3.745104</v>
       </c>
       <c r="N4">
-        <v>10.713522</v>
+        <v>11.235312</v>
       </c>
       <c r="O4">
-        <v>0.07435179521827506</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="P4">
-        <v>0.07435179521827505</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="Q4">
-        <v>151.838636884726</v>
+        <v>49.831296456304</v>
       </c>
       <c r="R4">
-        <v>1366.547731962534</v>
+        <v>448.481668106736</v>
       </c>
       <c r="S4">
-        <v>0.001718693261568407</v>
+        <v>0.001147775351333594</v>
       </c>
       <c r="T4">
-        <v>0.001718693261568407</v>
+        <v>0.001147775351333594</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4934.216186</v>
       </c>
       <c r="I5">
-        <v>0.8941956419399297</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="J5">
-        <v>0.8941956419399298</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.94532566666667</v>
+        <v>2.680851666666667</v>
       </c>
       <c r="N5">
-        <v>77.835977</v>
+        <v>8.042555</v>
       </c>
       <c r="O5">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="P5">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="Q5">
-        <v>42673.28195183596</v>
+        <v>4409.300561977248</v>
       </c>
       <c r="R5">
-        <v>384059.5375665237</v>
+        <v>39683.70505779523</v>
       </c>
       <c r="S5">
-        <v>0.4830277961156207</v>
+        <v>0.1015604020276019</v>
       </c>
       <c r="T5">
-        <v>0.4830277961156207</v>
+        <v>0.1015604020276019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4934.216186</v>
       </c>
       <c r="I6">
-        <v>0.8941956419399297</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="J6">
-        <v>0.8941956419399298</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.51427066666666</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N6">
         <v>55.542812</v>
       </c>
       <c r="O6">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="P6">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="Q6">
         <v>30451.13799848389</v>
@@ -818,10 +818,10 @@
         <v>274060.241986355</v>
       </c>
       <c r="S6">
-        <v>0.3446827945697174</v>
+        <v>0.7013878445921119</v>
       </c>
       <c r="T6">
-        <v>0.3446827945697175</v>
+        <v>0.7013878445921119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4934.216186</v>
       </c>
       <c r="I7">
-        <v>0.8941956419399297</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="J7">
-        <v>0.8941956419399298</v>
+        <v>0.9448263940026712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.571174000000001</v>
+        <v>3.745104</v>
       </c>
       <c r="N7">
-        <v>10.713522</v>
+        <v>11.235312</v>
       </c>
       <c r="O7">
-        <v>0.07435179521827506</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="P7">
-        <v>0.07435179521827505</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="Q7">
-        <v>5873.648184607455</v>
+        <v>6159.717591684447</v>
       </c>
       <c r="R7">
-        <v>52862.83366146709</v>
+        <v>55437.45832516003</v>
       </c>
       <c r="S7">
-        <v>0.06648505125459167</v>
+        <v>0.1418781473829573</v>
       </c>
       <c r="T7">
-        <v>0.06648505125459166</v>
+        <v>0.1418781473829573</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>152.093394</v>
+        <v>82.73961633333333</v>
       </c>
       <c r="H8">
-        <v>456.280182</v>
+        <v>248.218849</v>
       </c>
       <c r="I8">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316088</v>
       </c>
       <c r="J8">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.94532566666667</v>
+        <v>2.680851666666667</v>
       </c>
       <c r="N8">
-        <v>77.835977</v>
+        <v>8.042555</v>
       </c>
       <c r="O8">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="P8">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="Q8">
-        <v>3946.112639078645</v>
+        <v>221.8126383465772</v>
       </c>
       <c r="R8">
-        <v>35515.01375170781</v>
+        <v>1996.313745119195</v>
       </c>
       <c r="S8">
-        <v>0.04466687360558513</v>
+        <v>0.005109059908399527</v>
       </c>
       <c r="T8">
-        <v>0.04466687360558513</v>
+        <v>0.005109059908399525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>152.093394</v>
+        <v>82.73961633333333</v>
       </c>
       <c r="H9">
-        <v>456.280182</v>
+        <v>248.218849</v>
       </c>
       <c r="I9">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316088</v>
       </c>
       <c r="J9">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.51427066666666</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N9">
         <v>55.542812</v>
       </c>
       <c r="O9">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="P9">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="Q9">
-        <v>2815.898263127975</v>
+        <v>1531.863651651488</v>
       </c>
       <c r="R9">
-        <v>25343.08436815178</v>
+        <v>13786.77286486339</v>
       </c>
       <c r="S9">
-        <v>0.03187374089622819</v>
+        <v>0.03528375671524436</v>
       </c>
       <c r="T9">
-        <v>0.03187374089622819</v>
+        <v>0.03528375671524436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>152.093394</v>
+        <v>82.73961633333333</v>
       </c>
       <c r="H10">
-        <v>456.280182</v>
+        <v>248.218849</v>
       </c>
       <c r="I10">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316088</v>
       </c>
       <c r="J10">
-        <v>0.0826886652039283</v>
+        <v>0.04753008607316087</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.571174000000001</v>
+        <v>3.745104</v>
       </c>
       <c r="N10">
-        <v>10.713522</v>
+        <v>11.235312</v>
       </c>
       <c r="O10">
-        <v>0.07435179521827506</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="P10">
-        <v>0.07435179521827505</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="Q10">
-        <v>543.1519742245561</v>
+        <v>309.868468088432</v>
       </c>
       <c r="R10">
-        <v>4888.367768021004</v>
+        <v>2788.816212795888</v>
       </c>
       <c r="S10">
-        <v>0.006148050702114984</v>
+        <v>0.007137269449516988</v>
       </c>
       <c r="T10">
-        <v>0.006148050702114983</v>
+        <v>0.007137269449516987</v>
       </c>
     </row>
   </sheetData>
